--- a/SiteCore/wwwroot/Template/OOMS/DISP_TEMPLATE.xlsx
+++ b/SiteCore/wwwroot/Template/OOMS/DISP_TEMPLATE.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="111">
   <si>
     <t>в том числе:</t>
   </si>
@@ -351,6 +351,12 @@
   <si>
     <t>в рамках законченного случая, состоящего из одного этапа  диспансеризации
 (I этап)</t>
+  </si>
+  <si>
+    <t>кол-во случаев углубленной диспансеризации</t>
+  </si>
+  <si>
+    <t>оплачено в рамках углубленной диспансеризации за отчетный период, тыс. рублей</t>
   </si>
 </sst>
 </file>
@@ -476,7 +482,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -571,6 +577,65 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -583,7 +648,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -628,16 +693,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -694,6 +759,43 @@
     <xf numFmtId="4" fontId="8" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -998,10 +1100,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ7"/>
+  <dimension ref="A1:AL7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1016,10 +1118,11 @@
     <col min="13" max="13" width="18" customWidth="1"/>
     <col min="14" max="14" width="22.42578125" customWidth="1"/>
     <col min="15" max="15" width="21.28515625" customWidth="1"/>
-    <col min="19" max="19" width="26.28515625" customWidth="1"/>
+    <col min="18" max="18" width="18.28515625" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" customWidth="1"/>
     <col min="20" max="20" width="12.28515625" customWidth="1"/>
-    <col min="21" max="21" width="19.7109375" customWidth="1"/>
-    <col min="22" max="22" width="11.140625" customWidth="1"/>
+    <col min="21" max="21" width="12.5703125" customWidth="1"/>
+    <col min="22" max="22" width="7.42578125" customWidth="1"/>
     <col min="24" max="24" width="14.7109375" customWidth="1"/>
     <col min="25" max="25" width="12.42578125" customWidth="1"/>
     <col min="26" max="28" width="11.140625" customWidth="1"/>
@@ -1033,47 +1136,47 @@
     <col min="36" max="36" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:38" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21"/>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="21"/>
-      <c r="AJ1" s="21"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="18"/>
+      <c r="AG1" s="18"/>
+      <c r="AH1" s="18"/>
+      <c r="AI1" s="18"/>
+      <c r="AJ1" s="18"/>
     </row>
-    <row r="2" spans="1:36" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1111,11 +1214,11 @@
       <c r="AI2" s="1"/>
       <c r="AJ2" s="1"/>
     </row>
-    <row r="3" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:38" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="21" t="s">
         <v>63</v>
       </c>
       <c r="C3" s="19" t="s">
@@ -1146,30 +1249,32 @@
       <c r="T3" s="20"/>
       <c r="U3" s="20"/>
       <c r="V3" s="20"/>
-      <c r="W3" s="20" t="s">
+      <c r="W3" s="20"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="20" t="s">
+      <c r="Z3" s="41"/>
+      <c r="AA3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="Z3" s="20"/>
-      <c r="AA3" s="20"/>
       <c r="AB3" s="20"/>
-      <c r="AC3" s="19" t="s">
+      <c r="AC3" s="20"/>
+      <c r="AD3" s="20"/>
+      <c r="AE3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="AD3" s="19"/>
-      <c r="AE3" s="19"/>
       <c r="AF3" s="19"/>
       <c r="AG3" s="19"/>
       <c r="AH3" s="19"/>
       <c r="AI3" s="19"/>
       <c r="AJ3" s="19"/>
+      <c r="AK3" s="19"/>
+      <c r="AL3" s="19"/>
     </row>
-    <row r="4" spans="1:36" s="7" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
+    <row r="4" spans="1:38" s="7" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="19"/>
       <c r="D4" s="19" t="s">
         <v>3</v>
@@ -1194,36 +1299,38 @@
       <c r="N4" s="19"/>
       <c r="O4" s="19"/>
       <c r="P4" s="19"/>
-      <c r="Q4" s="20" t="s">
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20" t="s">
+      <c r="T4" s="48"/>
+      <c r="U4" s="48"/>
+      <c r="V4" s="49"/>
+      <c r="W4" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="V4" s="20" t="s">
+      <c r="X4" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="W4" s="20"/>
-      <c r="X4" s="20"/>
-      <c r="Y4" s="20"/>
-      <c r="Z4" s="20"/>
+      <c r="Y4" s="42"/>
+      <c r="Z4" s="43"/>
       <c r="AA4" s="20"/>
       <c r="AB4" s="20"/>
-      <c r="AC4" s="19"/>
-      <c r="AD4" s="19"/>
+      <c r="AC4" s="20"/>
+      <c r="AD4" s="20"/>
       <c r="AE4" s="19"/>
       <c r="AF4" s="19"/>
       <c r="AG4" s="19"/>
       <c r="AH4" s="19"/>
       <c r="AI4" s="19"/>
       <c r="AJ4" s="19"/>
+      <c r="AK4" s="19"/>
+      <c r="AL4" s="19"/>
     </row>
-    <row r="5" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
+    <row r="5" spans="1:38" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="19"/>
       <c r="D5" s="19" t="s">
         <v>8</v>
@@ -1258,66 +1365,72 @@
       <c r="P5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="20" t="s">
+      <c r="Q5" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="R5" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="S5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="R5" s="20" t="s">
+      <c r="T5" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="S5" s="20" t="s">
+      <c r="U5" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="T5" s="20" t="s">
+      <c r="V5" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="19" t="s">
+      <c r="W5" s="45"/>
+      <c r="X5" s="45"/>
+      <c r="Y5" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="X5" s="19" t="s">
+      <c r="Z5" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="Y5" s="20" t="s">
+      <c r="AA5" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="Z5" s="20" t="s">
+      <c r="AB5" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="AA5" s="20" t="s">
+      <c r="AC5" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="AB5" s="20" t="s">
+      <c r="AD5" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="AC5" s="19" t="s">
+      <c r="AE5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="AD5" s="8" t="s">
+      <c r="AF5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="AE5" s="19" t="s">
+      <c r="AG5" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="AF5" s="19" t="s">
+      <c r="AH5" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="AG5" s="19" t="s">
+      <c r="AI5" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="AH5" s="19" t="s">
+      <c r="AJ5" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="AI5" s="19" t="s">
+      <c r="AK5" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="AJ5" s="8" t="s">
+      <c r="AL5" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:36" s="7" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
+    <row r="6" spans="1:38" s="7" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
@@ -1332,32 +1445,34 @@
       <c r="N6" s="19"/>
       <c r="O6" s="19"/>
       <c r="P6" s="19"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
+      <c r="Q6" s="51"/>
+      <c r="R6" s="51"/>
       <c r="S6" s="20"/>
       <c r="T6" s="20"/>
       <c r="U6" s="20"/>
       <c r="V6" s="20"/>
-      <c r="W6" s="19"/>
-      <c r="X6" s="19"/>
-      <c r="Y6" s="20"/>
-      <c r="Z6" s="20"/>
+      <c r="W6" s="46"/>
+      <c r="X6" s="46"/>
+      <c r="Y6" s="19"/>
+      <c r="Z6" s="19"/>
       <c r="AA6" s="20"/>
       <c r="AB6" s="20"/>
-      <c r="AC6" s="19"/>
-      <c r="AD6" s="8" t="s">
+      <c r="AC6" s="20"/>
+      <c r="AD6" s="20"/>
+      <c r="AE6" s="19"/>
+      <c r="AF6" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="AE6" s="19"/>
-      <c r="AF6" s="19"/>
       <c r="AG6" s="19"/>
       <c r="AH6" s="19"/>
       <c r="AI6" s="19"/>
-      <c r="AJ6" s="8" t="s">
+      <c r="AJ6" s="19"/>
+      <c r="AK6" s="19"/>
+      <c r="AL6" s="8" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>30</v>
       </c>
@@ -1466,40 +1581,15 @@
       <c r="AJ7" s="9" t="s">
         <v>60</v>
       </c>
+      <c r="AK7" s="52">
+        <v>37</v>
+      </c>
+      <c r="AL7" s="52">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="A1:AJ1"/>
-    <mergeCell ref="AF5:AF6"/>
-    <mergeCell ref="AG5:AG6"/>
-    <mergeCell ref="AH5:AH6"/>
-    <mergeCell ref="AI5:AI6"/>
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="Z5:Z6"/>
-    <mergeCell ref="AA5:AA6"/>
-    <mergeCell ref="AB5:AB6"/>
-    <mergeCell ref="W5:W6"/>
-    <mergeCell ref="V4:V6"/>
-    <mergeCell ref="W3:X4"/>
-    <mergeCell ref="Y3:AB4"/>
-    <mergeCell ref="AE5:AE6"/>
-    <mergeCell ref="AC3:AJ4"/>
-    <mergeCell ref="AC5:AC6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="U4:U6"/>
-    <mergeCell ref="M3:V3"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="Q4:T4"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
+  <mergeCells count="46">
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="C3:C6"/>
@@ -1513,6 +1603,39 @@
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="G4:I4"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="M3:X3"/>
+    <mergeCell ref="M4:R4"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="AE5:AE6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="V5:V6"/>
+    <mergeCell ref="AE3:AL4"/>
+    <mergeCell ref="AA3:AD4"/>
+    <mergeCell ref="Y3:Z4"/>
+    <mergeCell ref="X4:X6"/>
+    <mergeCell ref="W4:W6"/>
+    <mergeCell ref="A1:AJ1"/>
+    <mergeCell ref="AH5:AH6"/>
+    <mergeCell ref="AI5:AI6"/>
+    <mergeCell ref="AJ5:AJ6"/>
+    <mergeCell ref="AK5:AK6"/>
+    <mergeCell ref="Z5:Z6"/>
+    <mergeCell ref="AA5:AA6"/>
+    <mergeCell ref="AB5:AB6"/>
+    <mergeCell ref="AC5:AC6"/>
+    <mergeCell ref="AD5:AD6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="AG5:AG6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
